--- a/Stocks/COX&KINGS.xlsx
+++ b/Stocks/COX&KINGS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>228.29999999999998</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>285.49199309389996</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>280.17595206329202</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>37.180251484547888</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>4</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>16</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.25</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>277.85604174761841</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>6.472914350592589</v>
       </c>
       <c r="Y67">
         <v>7.292082605354091</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>264</v>
+      </c>
+      <c r="D83">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="E83">
+        <v>263</v>
+      </c>
+      <c r="F83">
+        <v>263.55</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>264.81666666666666</v>
+      </c>
+      <c r="H83">
+        <v>264.5134728799402</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>271.80494596309973</v>
+      </c>
+      <c r="K83">
+        <v>262.33272689535022</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>42.811110527232685</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.11224489795918652</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>266.8768913044795</v>
+      </c>
+      <c r="W83">
+        <v>270.29900393667208</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-3.4221126321925794</v>
+      </c>
+      <c r="Y83">
+        <v>-1.8375399942317814</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>263</v>
+      </c>
+      <c r="D84">
+        <v>266.25</v>
+      </c>
+      <c r="E84">
+        <v>261</v>
+      </c>
+      <c r="F84">
+        <v>261.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>262.91666666666669</v>
+      </c>
+      <c r="H84">
+        <v>263.71506977330341</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>270.57051352685534</v>
+      </c>
+      <c r="K84">
+        <v>262.03656536305016</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>36.987545045158775</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>266.04967725763652</v>
+      </c>
+      <c r="W84">
+        <v>269.64722586728897</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-3.5975486096524492</v>
+      </c>
+      <c r="Y84">
+        <v>-2.1895417173159148</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>264.85000000000002</v>
+      </c>
+      <c r="D85">
+        <v>267.2</v>
+      </c>
+      <c r="E85">
+        <v>261.14999999999998</v>
+      </c>
+      <c r="F85">
+        <v>262.05</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>263.46666666666664</v>
+      </c>
+      <c r="H85">
+        <v>263.59086821998505</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>269.8215105208875</v>
+      </c>
+      <c r="K85">
+        <v>261.8395508379279</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>39.736730278941963</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.90000000000003411</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.0500000000000114</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.14876033057851776</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>265.43434229492323</v>
+      </c>
+      <c r="W85">
+        <v>269.08446839563794</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-3.650126100714715</v>
+      </c>
+      <c r="Y85">
+        <v>-2.4816585939956748</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>264.5</v>
+      </c>
+      <c r="D86">
+        <v>265.2</v>
+      </c>
+      <c r="E86">
+        <v>261.5</v>
+      </c>
+      <c r="F86">
+        <v>264.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>263.73333333333335</v>
+      </c>
+      <c r="H86">
+        <v>263.6621007766592</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>268.79450818291252</v>
+      </c>
+      <c r="K86">
+        <v>261.76409509616616</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>51.515369088111775</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.8108108108108133</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>265.29059732647352</v>
+      </c>
+      <c r="W86">
+        <v>268.74487814410918</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-3.454280817635663</v>
+      </c>
+      <c r="Y86">
+        <v>-2.6761830387236722</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>263.55</v>
+      </c>
+      <c r="D87">
+        <v>269.5</v>
+      </c>
+      <c r="E87">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="F87">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>267</v>
+      </c>
+      <c r="H87">
+        <v>265.33105038832957</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>268.95128414226531</v>
+      </c>
+      <c r="K87">
+        <v>262.06096285257371</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>65.091637723585507</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.82812499999999578</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>265.76896696855454</v>
+      </c>
+      <c r="W87">
+        <v>268.71933161491592</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-2.9503646463613791</v>
+      </c>
+      <c r="Y87">
+        <v>-2.7310193602512136</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>268</v>
+      </c>
+      <c r="D88">
+        <v>272.35000000000002</v>
+      </c>
+      <c r="E88">
+        <v>265</v>
+      </c>
+      <c r="F88">
+        <v>270</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>269.11666666666667</v>
+      </c>
+      <c r="H88">
+        <v>267.22385852749812</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>269.706554332873</v>
+      </c>
+      <c r="K88">
+        <v>262.71408221866847</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>69.474911959566697</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>7.3500000000000227</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.68027210884353528</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>266.41989512723848</v>
+      </c>
+      <c r="W88">
+        <v>268.81419593973698</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-2.3943008124984999</v>
+      </c>
+      <c r="Y88">
+        <v>-2.6636756507006707</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="D89">
+        <v>279.8</v>
+      </c>
+      <c r="E89">
+        <v>268.55</v>
+      </c>
+      <c r="F89">
+        <v>269</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>272.45</v>
+      </c>
+      <c r="H89">
+        <v>269.83692926374908</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>271.9495422589012</v>
+      </c>
+      <c r="K89">
+        <v>264.01095283674215</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>63.268420122166788</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>11.25</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>3.9999999999998988E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>266.81683433843256</v>
+      </c>
+      <c r="W89">
+        <v>268.82795920346018</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2.0111248650276252</v>
+      </c>
+      <c r="Y89">
+        <v>-2.5331654935660617</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>267.64999999999998</v>
+      </c>
+      <c r="D90">
+        <v>273.95</v>
+      </c>
+      <c r="E90">
+        <v>264.5</v>
+      </c>
+      <c r="F90">
+        <v>270.85000000000002</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>269.76666666666671</v>
+      </c>
+      <c r="H90">
+        <v>269.80179796520792</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>272.39408842358984</v>
+      </c>
+      <c r="K90">
+        <v>264.11962998413276</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>69.557417534457429</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6.3500000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>9.4499999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.6719576719576752</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>267.43732136328907</v>
+      </c>
+      <c r="W90">
+        <v>268.97774000320385</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.5404186399147761</v>
+      </c>
+      <c r="Y90">
+        <v>-2.3346161228358047</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>271.64999999999998</v>
+      </c>
+      <c r="D91">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="E91">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="F91">
+        <v>270</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>270.40000000000003</v>
+      </c>
+      <c r="H91">
+        <v>270.10089898260401</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>272.55095766279209</v>
+      </c>
+      <c r="K91">
+        <v>265.00415665432547</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>63.329993200368975</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>267.83157961509073</v>
+      </c>
+      <c r="W91">
+        <v>269.0534629659295</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-1.2218833508387661</v>
+      </c>
+      <c r="Y91">
+        <v>-2.112069568436397</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="D92">
+        <v>274</v>
+      </c>
+      <c r="E92">
+        <v>269</v>
+      </c>
+      <c r="F92">
+        <v>271.64999999999998</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>271.55</v>
+      </c>
+      <c r="H92">
+        <v>270.82544949130204</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>272.87296707106049</v>
+      </c>
+      <c r="K92">
+        <v>265.89212184225312</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>69.87446758724316</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.52999999999999547</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>268.41902890507674</v>
+      </c>
+      <c r="W92">
+        <v>269.24579904252732</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.82677013745058048</v>
+      </c>
+      <c r="Y92">
+        <v>-1.8550096822392337</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>274.5</v>
+      </c>
+      <c r="D93">
+        <v>274.5</v>
+      </c>
+      <c r="E93">
+        <v>268.14999999999998</v>
+      </c>
+      <c r="F93">
+        <v>270</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>270.88333333333333</v>
+      </c>
+      <c r="H93">
+        <v>270.85439141231768</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>273.23452994415817</v>
+      </c>
+      <c r="K93">
+        <v>266.39387254397462</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>57.129608387159749</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000227</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.29133858267716789</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>268.66225522737261</v>
+      </c>
+      <c r="W93">
+        <v>269.3016657801179</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-0.63941055274528935</v>
+      </c>
+      <c r="Y93">
+        <v>-1.6118898563404449</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>272</v>
+      </c>
+      <c r="D94">
+        <v>273</v>
+      </c>
+      <c r="E94">
+        <v>269.14999999999998</v>
+      </c>
+      <c r="F94">
+        <v>269.25</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>270.46666666666664</v>
+      </c>
+      <c r="H94">
+        <v>270.66052903949219</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>273.18241217878966</v>
+      </c>
+      <c r="K94">
+        <v>267.00634531198028</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>51.764976983227214</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>3.8500000000000227</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>2.5974025974031728E-2</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>268.75267750008453</v>
+      </c>
+      <c r="W94">
+        <v>269.29783868529438</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-0.54516118520984946</v>
+      </c>
+      <c r="Y94">
+        <v>-1.3985441221143258</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>270</v>
+      </c>
+      <c r="D95">
+        <v>273</v>
+      </c>
+      <c r="E95">
+        <v>268.2</v>
+      </c>
+      <c r="F95">
+        <v>272</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>271.06666666666666</v>
+      </c>
+      <c r="H95">
+        <v>270.86359785307945</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>273.14187613905864</v>
+      </c>
+      <c r="K95">
+        <v>267.27160190931801</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>66.278362686116608</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.79166666666666718</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>269.2522655769946</v>
+      </c>
+      <c r="W95">
+        <v>269.49799878267999</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-0.24573320568538293</v>
+      </c>
+      <c r="Y95">
+        <v>-1.1679819388285373</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>273.5</v>
+      </c>
+      <c r="D96">
+        <v>273.5</v>
+      </c>
+      <c r="E96">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="F96">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>267.56666666666666</v>
+      </c>
+      <c r="H96">
+        <v>269.21513225987303</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>273.22145921926784</v>
+      </c>
+      <c r="K96">
+        <v>266.67791259613625</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>32.940205492323464</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>268.53653241130314</v>
+      </c>
+      <c r="W96">
+        <v>269.135184058037</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-0.59865164673385607</v>
+      </c>
+      <c r="Y96">
+        <v>-1.0541158804096011</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>265</v>
+      </c>
+      <c r="D97">
+        <v>267</v>
+      </c>
+      <c r="E97">
+        <v>260.45</v>
+      </c>
+      <c r="F97">
+        <v>262.14999999999998</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>263.2</v>
+      </c>
+      <c r="H97">
+        <v>266.20756612993648</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>271.83891272609719</v>
+      </c>
+      <c r="K97">
+        <v>265.2939320192171</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>27.2645878134818</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>6.5500000000000114</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.25954198473282225</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>267.55398896341035</v>
+      </c>
+      <c r="W97">
+        <v>268.61776301670091</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.0637740532905582</v>
+      </c>
+      <c r="Y97">
+        <v>-1.0560475149857926</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>265.7</v>
+      </c>
+      <c r="D98">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="E98">
+        <v>263.25</v>
+      </c>
+      <c r="F98">
+        <v>269.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>268.45</v>
+      </c>
+      <c r="H98">
+        <v>267.32878306496821</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>272.00804323140892</v>
+      </c>
+      <c r="K98">
+        <v>264.83972490383553</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>55.814224186376158</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.3500000000000227</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.66844919786096091</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>267.85337527673181</v>
+      </c>
+      <c r="W98">
+        <v>268.68311390435269</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-0.82973862762088402</v>
+      </c>
+      <c r="Y98">
+        <v>-1.0107857375128109</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>269.45</v>
+      </c>
+      <c r="D99">
+        <v>274.5</v>
+      </c>
+      <c r="E99">
+        <v>268.8</v>
+      </c>
+      <c r="F99">
+        <v>272</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>271.76666666666665</v>
+      </c>
+      <c r="H99">
+        <v>269.54772486581743</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>272.56181140220696</v>
+      </c>
+      <c r="K99">
+        <v>265.71978603631652</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>62.133565010164368</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.56140350877192891</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>268.49131754184998</v>
+      </c>
+      <c r="W99">
+        <v>268.92880917069692</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.43749162884694215</v>
+      </c>
+      <c r="Y99">
+        <v>-0.8961269157796371</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>273.3</v>
+      </c>
+      <c r="D100">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="E100">
+        <v>271</v>
+      </c>
+      <c r="F100">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>274.5</v>
+      </c>
+      <c r="H100">
+        <v>272.02386243290869</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>273.97029775727208</v>
+      </c>
+      <c r="K100">
+        <v>266.89316691713509</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>66.021214749435003</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.32911392405063672</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>269.27726868925765</v>
+      </c>
+      <c r="W100">
+        <v>269.27482330620086</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>2.4453830567949808E-3</v>
+      </c>
+      <c r="Y100">
+        <v>-0.71641245601235071</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="D101">
+        <v>277</v>
+      </c>
+      <c r="E101">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="F101">
+        <v>270</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>271.63333333333333</v>
+      </c>
+      <c r="H101">
+        <v>271.82859788312101</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>274.64356492232275</v>
+      </c>
+      <c r="K101">
+        <v>267.1169076022162</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>51.228790765829388</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>9.1000000000000227</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.2307692307692327</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>269.38845812167955</v>
+      </c>
+      <c r="W101">
+        <v>269.32854009833414</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>5.9918023345403526E-2</v>
+      </c>
+      <c r="Y101">
+        <v>-0.56114636014079988</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>275</v>
+      </c>
+      <c r="D102">
+        <v>275.05</v>
+      </c>
+      <c r="E102">
+        <v>263.5</v>
+      </c>
+      <c r="F102">
+        <v>264.7</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>267.75</v>
+      </c>
+      <c r="H102">
+        <v>269.7892989415605</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>274.73388382847327</v>
+      </c>
+      <c r="K102">
+        <v>266.31315035727926</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>36.272675395846541</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>11.550000000000011</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10389610389610281</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>268.66715687219039</v>
+      </c>
+      <c r="W102">
+        <v>268.9856852762353</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-0.31852840404491189</v>
+      </c>
+      <c r="Y102">
+        <v>-0.51262276892162228</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>269</v>
+      </c>
+      <c r="D103">
+        <v>271.75</v>
+      </c>
+      <c r="E103">
+        <v>262</v>
+      </c>
+      <c r="F103">
+        <v>270</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>267.91666666666669</v>
+      </c>
+      <c r="H103">
+        <v>268.85298280411359</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>274.070798533257</v>
+      </c>
+      <c r="K103">
+        <v>265.35467250010606</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>53.311068960506191</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>9.75</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>268.87220966108418</v>
+      </c>
+      <c r="W103">
+        <v>269.06081970021785</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.18861003913366403</v>
+      </c>
+      <c r="Y103">
+        <v>-0.44782022296403062</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>268</v>
+      </c>
+      <c r="D104">
+        <v>277.7</v>
+      </c>
+      <c r="E104">
+        <v>268</v>
+      </c>
+      <c r="F104">
+        <v>270</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>271.90000000000003</v>
+      </c>
+      <c r="H104">
+        <v>270.37649140205679</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>274.8772877480888</v>
+      </c>
+      <c r="K104">
+        <v>265.94252305563805</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>53.311068960506191</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.20618556701030952</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>269.04571586707124</v>
+      </c>
+      <c r="W104">
+        <v>269.13038861131281</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-8.4672744241572673E-2</v>
+      </c>
+      <c r="Y104">
+        <v>-0.37519072721953906</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
